--- a/data/inat_after_analysis_expanded.xlsx
+++ b/data/inat_after_analysis_expanded.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D5509E8-9213-4E3D-B331-41D97B898C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00012DC5-35CC-43F6-B14F-CF65E79831FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="201">
   <si>
     <t>Angianthus cunninghamii</t>
   </si>
@@ -612,12 +624,24 @@
   </si>
   <si>
     <t>ID debt is the difference (in days) between the date of upload to iNaturalist and a species ID being added</t>
+  </si>
+  <si>
+    <t>mean age debt</t>
+  </si>
+  <si>
+    <t>median age debt</t>
+  </si>
+  <si>
+    <t>mean id debt</t>
+  </si>
+  <si>
+    <t>median id debt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,10 +1475,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2293,11 +2317,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,21 +2419,21 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2417,32 +2441,32 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11">
+        <v>46</v>
+      </c>
+      <c r="C11">
         <v>0</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2450,32 +2474,32 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>458</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2483,86 +2507,170 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>194</v>
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>6192</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B17">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B18">
-        <v>6192</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19">
         <v>0</v>
-      </c>
-      <c r="C19">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="B20">
+        <v>480</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>129</v>
+      </c>
+      <c r="B21">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>179</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>145</v>
       </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(B2:B24)</f>
+        <v>755.60869565217388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31">
+        <f>MEDIAN(B2:B24)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(C2:C26)</f>
+        <v>51.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <f>MEDIAN(C2:C26)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
